--- a/data/data_validation_rules - template.xlsx
+++ b/data/data_validation_rules - template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insidemedia.sharepoint.com/sites/wppunite/Shared Documents/Capability Hubs/Data &amp; Analytics/Retail Media Analytics/01. RROI Data Collection/4 - Final File Merging Process/data_validation/qa_script/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insidemedia.sharepoint.com/sites/wppunite/Shared Documents/Capability Hubs/Data &amp; Analytics/Retail Media Analytics/01. RROI Data Collection/4 - Final File Merging Process/data validation workflows/qa_script/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="11_C9FA9622D344422706C98DA7C1C3D2ED415C2BCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77001FC8-0803-40AB-836F-BE0576485DFC}"/>
+  <xr:revisionPtr revIDLastSave="768" documentId="11_C9FA9622D344422706C98DA7C1C3D2ED415C2BCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193036D9-5105-4D59-90D2-5BC2220CEDCA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11970" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="2" r:id="rId1"/>
@@ -45,6 +45,20 @@
     <author>tc={AAC3937B-9246-4FFF-A340-2BE125A7542D}</author>
     <author>tc={6E883BF5-8782-4AD6-AD18-9A2AC7EA4415}</author>
     <author>tc={AB0124D1-CFB1-4288-9DA3-896AB6156AE9}</author>
+    <author>tc={660D3914-4AA7-47AB-A586-CBC2F044FDE3}</author>
+    <author>tc={D4E03E8E-24D9-4AA1-988D-7CF3386F0870}</author>
+    <author>tc={D245AFCA-54F6-4CB5-B390-A183C60BB76C}</author>
+    <author>tc={4A674410-F85B-4623-BF84-3A7CC859818A}</author>
+    <author>tc={68A98855-82DB-4602-9C0B-D3C5A7B226DA}</author>
+    <author>tc={74DC55D5-1C06-4275-B0BD-9EBE99E93B2F}</author>
+    <author>tc={1E6C8695-8298-408A-9351-542248DE9B01}</author>
+    <author>tc={992A550E-4097-406C-BAB3-A59DB7EC646B}</author>
+    <author>tc={17068D32-6CA4-4132-91DB-61ACCC8945C4}</author>
+    <author>tc={F3C31F7B-6BD8-4BA7-BC35-A1E755AA402D}</author>
+    <author>tc={76ADA41D-BDCF-48AC-9B56-931DB26B5EFC}</author>
+    <author>tc={D9C09002-916A-4C45-8D01-FA1D7237FBDD}</author>
+    <author>tc={29013CF3-C789-41C0-9D06-DA3221FD0598}</author>
+    <author>tc={D66F848F-F67E-4295-ABCE-946EC286837E}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BE30CCE0-8018-4A50-8E03-D141F81427C8}">
@@ -56,6 +70,7 @@
 - each month of: date_column
 - each date of: date_column
 - Python pandas.DataFrame.query() syntax
+- Left blank (scope = the whole file)
 If column name has space or special characters, wrap it with ticks like `column name` (not single quote! The one that shares the same key as ~)</t>
       </text>
     </comment>
@@ -94,12 +109,126 @@
 Allow value 1 or being left as blank (meaning this column &amp; scope combination doesn’t have this not_empty rule).</t>
       </text>
     </comment>
+    <comment ref="B2" authorId="4" shapeId="0" xr:uid="{660D3914-4AA7-47AB-A586-CBC2F044FDE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validation will be done on each month that exist in the raw data</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="5" shapeId="0" xr:uid="{D4E03E8E-24D9-4AA1-988D-7CF3386F0870}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Special characters need to be escaped
+Only these values are allowed</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="6" shapeId="0" xr:uid="{D245AFCA-54F6-4CB5-B390-A183C60BB76C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Special characters need to be escaped
+These values should all exist</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="7" shapeId="0" xr:uid="{4A674410-F85B-4623-BF84-3A7CC859818A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 means this can’t be empty</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="8" shapeId="0" xr:uid="{68A98855-82DB-4602-9C0B-D3C5A7B226DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validation will be done on each day that exist in the raw data</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="9" shapeId="0" xr:uid="{74DC55D5-1C06-4275-B0BD-9EBE99E93B2F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Left blank means it allows everything</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="10" shapeId="0" xr:uid="{1E6C8695-8298-408A-9351-542248DE9B01}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Left blank means it doesn’t have to include anything (but it still can include them)</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="11" shapeId="0" xr:uid="{992A550E-4097-406C-BAB3-A59DB7EC646B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validation will be done on the whole file of the raw data</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="12" shapeId="0" xr:uid="{17068D32-6CA4-4132-91DB-61ACCC8945C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    “all dates in range:" followed by this date format will be parsed to daily level</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="13" shapeId="0" xr:uid="{F3C31F7B-6BD8-4BA7-BC35-A1E755AA402D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validation will be done on the raw data that’s filtered by this condition</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="14" shapeId="0" xr:uid="{76ADA41D-BDCF-48AC-9B56-931DB26B5EFC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These are taken as literal</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="15" shapeId="0" xr:uid="{D9C09002-916A-4C45-8D01-FA1D7237FBDD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No content means this can be empty</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="16" shapeId="0" xr:uid="{29013CF3-C789-41C0-9D06-DA3221FD0598}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validation will be done on the raw data that’s filtered by this condition</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="17" shapeId="0" xr:uid="{D66F848F-F67E-4295-ABCE-946EC286837E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Actual (blank) in Excel is written like this</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>column</t>
   </si>
@@ -117,13 +246,52 @@
   </si>
   <si>
     <t>scope</t>
+  </si>
+  <si>
+    <t>each month of: Date</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>each date of: Date</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>all dates in range: 8/1/2025 - 10/31/2025</t>
+  </si>
+  <si>
+    <t>['Brand 1', 'Brand with backslash \\ in name', 'Brand with single quote \' in name]</t>
+  </si>
+  <si>
+    <t>['NULL', 'NA', 'NAN', 'Null']</t>
+  </si>
+  <si>
+    <t>Date == '1/1/2025'</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>Another Column</t>
+  </si>
+  <si>
+    <t>NULL Column</t>
+  </si>
+  <si>
+    <t>Brand == 'Brand 1'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +306,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,6 +346,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,6 +642,7 @@
 - each month of: date_column
 - each date of: date_column
 - Python pandas.DataFrame.query() syntax
+- Left blank (scope = the whole file)
 If column name has space or special characters, wrap it with ticks like `column name` (not single quote! The one that shares the same key as ~)</text>
   </threadedComment>
   <threadedComment ref="C1" dT="2025-11-13T04:26:23.39" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{AAC3937B-9246-4FFF-A340-2BE125A7542D}">
@@ -487,20 +665,64 @@
     <text>If it has value 1, it means this column &amp; scope doesn’t allow empty values, i.e. (blank) in Excel.
 Allow value 1 or being left as blank (meaning this column &amp; scope combination doesn’t have this not_empty rule).</text>
   </threadedComment>
+  <threadedComment ref="B2" dT="2025-11-17T17:18:07.72" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{660D3914-4AA7-47AB-A586-CBC2F044FDE3}">
+    <text>Validation will be done on each month that exist in the raw data</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2025-11-17T17:12:22.50" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{D4E03E8E-24D9-4AA1-988D-7CF3386F0870}">
+    <text>Special characters need to be escaped
+Only these values are allowed</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2025-11-17T17:12:22.50" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{D245AFCA-54F6-4CB5-B390-A183C60BB76C}">
+    <text>Special characters need to be escaped
+These values should all exist</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2025-11-17T17:17:25.58" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{4A674410-F85B-4623-BF84-3A7CC859818A}">
+    <text>1 means this can’t be empty</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2025-11-17T17:18:13.82" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{68A98855-82DB-4602-9C0B-D3C5A7B226DA}">
+    <text>Validation will be done on each day that exist in the raw data</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2025-11-17T17:19:19.25" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{74DC55D5-1C06-4275-B0BD-9EBE99E93B2F}">
+    <text>Left blank means it allows everything</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2025-11-17T17:19:55.59" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{1E6C8695-8298-408A-9351-542248DE9B01}">
+    <text>Left blank means it doesn’t have to include anything (but it still can include them)</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2025-11-17T17:18:29.27" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{992A550E-4097-406C-BAB3-A59DB7EC646B}">
+    <text>Validation will be done on the whole file of the raw data</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2025-11-17T17:13:02.65" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{17068D32-6CA4-4132-91DB-61ACCC8945C4}">
+    <text>“all dates in range:" followed by this date format will be parsed to daily level</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2025-11-17T17:18:46.97" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{F3C31F7B-6BD8-4BA7-BC35-A1E755AA402D}">
+    <text>Validation will be done on the raw data that’s filtered by this condition</text>
+  </threadedComment>
+  <threadedComment ref="C5" dT="2025-11-17T17:12:30.13" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{76ADA41D-BDCF-48AC-9B56-931DB26B5EFC}">
+    <text>These are taken as literal</text>
+  </threadedComment>
+  <threadedComment ref="E5" dT="2025-11-17T17:17:37.59" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{D9C09002-916A-4C45-8D01-FA1D7237FBDD}">
+    <text>No content means this can be empty</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2025-11-17T17:18:50.10" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{29013CF3-C789-41C0-9D06-DA3221FD0598}">
+    <text>Validation will be done on the raw data that’s filtered by this condition</text>
+  </threadedComment>
+  <threadedComment ref="C6" dT="2025-11-17T17:16:28.35" personId="{F7195CFF-01BB-4991-AFB1-60243BBAEF03}" id="{D66F848F-F67E-4295-ABCE-946EC286837E}">
+    <text>Actual (blank) in Excel is written like this</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96841B13-1CB5-4512-9CD3-08E2DEE63242}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="56.21875" style="2" customWidth="1"/>
     <col min="3" max="4" width="70" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
@@ -527,6 +749,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -537,57 +823,34 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C451C6CC6AF4BB46A274D182E659FE01" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f26097f15fec2484e25f20739937ed0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e089b823-82b9-4e89-9c47-80bd40cc83bd" xmlns:ns3="feb919df-0f2a-46f1-b0d0-cea71ba297d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4bdb0330514ff70b47e021c4f19ae14" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AdditionalDetails xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8" xsi:nil="true"/>
+    <ArchiverLinkFileType xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd" xsi:nil="true"/>
+    <_dlc_DocId xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8">ZWESERJTJNTM-750199678-275779</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8">
+      <Url>https://insidemedia.sharepoint.com/sites/wppunite/_layouts/15/DocIdRedir.aspx?ID=ZWESERJTJNTM-750199678-275779</Url>
+      <Description>ZWESERJTJNTM-750199678-275779</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C451C6CC6AF4BB46A274D182E659FE01" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74be65bee2c0775d04b30dee67ef9f50">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e089b823-82b9-4e89-9c47-80bd40cc83bd" xmlns:ns3="feb919df-0f2a-46f1-b0d0-cea71ba297d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0665d205114d035ac0f52fa39618ed2" ns2:_="" ns3:_="">
     <xsd:import namespace="e089b823-82b9-4e89-9c47-80bd40cc83bd"/>
     <xsd:import namespace="feb919df-0f2a-46f1-b0d0-cea71ba297d8"/>
     <xsd:element name="properties">
@@ -837,61 +1100,65 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AdditionalDetails xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8" xsi:nil="true"/>
-    <ArchiverLinkFileType xmlns="e089b823-82b9-4e89-9c47-80bd40cc83bd" xsi:nil="true"/>
-    <_dlc_DocId xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8">ZWESERJTJNTM-750199678-275779</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="feb919df-0f2a-46f1-b0d0-cea71ba297d8">
-      <Url>https://insidemedia.sharepoint.com/sites/wppunite/_layouts/15/DocIdRedir.aspx?ID=ZWESERJTJNTM-750199678-275779</Url>
-      <Description>ZWESERJTJNTM-750199678-275779</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78DD3DD6-D75A-4B2D-9E49-09F3DFAF6C92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A789F976-944A-4347-8299-F251EB38BF8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{572D75BF-7E05-459F-924F-E0A7FE15B465}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e089b823-82b9-4e89-9c47-80bd40cc83bd"/>
-    <ds:schemaRef ds:uri="feb919df-0f2a-46f1-b0d0-cea71ba297d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C89BB83-6F83-49A3-BA02-D9FD7B951B09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -902,10 +1169,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0530EA3-E0B1-4E63-ADDA-33356050E414}"/>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A789F976-944A-4347-8299-F251EB38BF8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78DD3DD6-D75A-4B2D-9E49-09F3DFAF6C92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>